--- a/UNA/nomina-list.xlsx
+++ b/UNA/nomina-list.xlsx
@@ -15,7 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>2020-08-23T04:45:38.000000Z</t>
+  </si>
+  <si>
+    <t>2020-10-05T06:07:48.000000Z</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,14 +359,1983 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>49.82</v>
+      </c>
+      <c r="C1">
+        <v>13.65</v>
+      </c>
+      <c r="D1">
+        <v>73.01</v>
+      </c>
+      <c r="E1">
+        <v>16.82</v>
+      </c>
+      <c r="F1">
+        <v>4.25</v>
+      </c>
+      <c r="G1">
+        <v>73.2</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>35.74</v>
+      </c>
+      <c r="J1">
+        <v>50.76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>54.2</v>
+      </c>
+      <c r="C2">
+        <v>22.1</v>
+      </c>
+      <c r="D2">
+        <v>4.08</v>
+      </c>
+      <c r="E2">
+        <v>92.73</v>
+      </c>
+      <c r="F2">
+        <v>50.76</v>
+      </c>
+      <c r="G2">
+        <v>98.88</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>81.5</v>
+      </c>
+      <c r="J2">
+        <v>36.9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>46.15</v>
+      </c>
+      <c r="C3">
+        <v>53.39</v>
+      </c>
+      <c r="D3">
+        <v>20.43</v>
+      </c>
+      <c r="E3">
+        <v>75.05</v>
+      </c>
+      <c r="F3">
+        <v>50.06</v>
+      </c>
+      <c r="G3">
+        <v>92.71</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>70.7</v>
+      </c>
+      <c r="J3">
+        <v>9.98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>34.24</v>
+      </c>
+      <c r="C4">
+        <v>42.26</v>
+      </c>
+      <c r="D4">
+        <v>19.27</v>
+      </c>
+      <c r="E4">
+        <v>24.48</v>
+      </c>
+      <c r="F4">
+        <v>53.99</v>
+      </c>
+      <c r="G4">
+        <v>60.42</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>74.65</v>
+      </c>
+      <c r="J4">
+        <v>68.47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>17.73</v>
+      </c>
+      <c r="C5">
+        <v>20.28</v>
+      </c>
+      <c r="D5">
+        <v>27.75</v>
+      </c>
+      <c r="E5">
+        <v>63.13</v>
+      </c>
+      <c r="F5">
+        <v>31.51</v>
+      </c>
+      <c r="G5">
+        <v>14.18</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>56.07</v>
+      </c>
+      <c r="J5">
+        <v>1.03</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>39.29</v>
+      </c>
+      <c r="C6">
+        <v>1.06</v>
+      </c>
+      <c r="D6">
+        <v>84.75</v>
+      </c>
+      <c r="E6">
+        <v>45.85</v>
+      </c>
+      <c r="F6">
+        <v>18.68</v>
+      </c>
+      <c r="G6">
+        <v>30.7</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>66.29</v>
+      </c>
+      <c r="J6">
+        <v>66.21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>98.44</v>
+      </c>
+      <c r="C7">
+        <v>62.31</v>
+      </c>
+      <c r="D7">
+        <v>25.55</v>
+      </c>
+      <c r="E7">
+        <v>57.68</v>
+      </c>
+      <c r="F7">
+        <v>71.56</v>
+      </c>
+      <c r="G7">
+        <v>76.23</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>65.24</v>
+      </c>
+      <c r="J7">
+        <v>89.07</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>90.41</v>
+      </c>
+      <c r="C8">
+        <v>17.06</v>
+      </c>
+      <c r="D8">
+        <v>85.37</v>
+      </c>
+      <c r="E8">
+        <v>26.99</v>
+      </c>
+      <c r="F8">
+        <v>14.02</v>
+      </c>
+      <c r="G8">
+        <v>46.82</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>28.65</v>
+      </c>
+      <c r="J8">
+        <v>6.06</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>42.75</v>
+      </c>
+      <c r="C9">
+        <v>9.65</v>
+      </c>
+      <c r="D9">
+        <v>88.42</v>
+      </c>
+      <c r="E9">
+        <v>64.76</v>
+      </c>
+      <c r="F9">
+        <v>40.22</v>
+      </c>
+      <c r="G9">
+        <v>20.35</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <v>82.53</v>
+      </c>
+      <c r="J9">
+        <v>13.43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>50.6</v>
+      </c>
+      <c r="C10">
+        <v>80.16</v>
+      </c>
+      <c r="D10">
+        <v>10.39</v>
+      </c>
+      <c r="E10">
+        <v>60.52</v>
+      </c>
+      <c r="F10">
+        <v>39.89</v>
+      </c>
+      <c r="G10">
+        <v>28.31</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>5.1</v>
+      </c>
+      <c r="J10">
+        <v>54.83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>88.94</v>
+      </c>
+      <c r="C11">
+        <v>83.38</v>
+      </c>
+      <c r="D11">
+        <v>71.29</v>
+      </c>
+      <c r="E11">
+        <v>87.34</v>
+      </c>
+      <c r="F11">
+        <v>27.43</v>
+      </c>
+      <c r="G11">
+        <v>85.04</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>54.45</v>
+      </c>
+      <c r="J11">
+        <v>9.15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>46.66</v>
+      </c>
+      <c r="C12">
+        <v>44.95</v>
+      </c>
+      <c r="D12">
+        <v>81.4</v>
+      </c>
+      <c r="E12">
+        <v>46.26</v>
+      </c>
+      <c r="F12">
+        <v>43.49</v>
+      </c>
+      <c r="G12">
+        <v>48.45</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>40.9</v>
+      </c>
+      <c r="J12">
+        <v>26.34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.8</v>
+      </c>
+      <c r="C13">
+        <v>81.96</v>
+      </c>
+      <c r="D13">
+        <v>34.73</v>
+      </c>
+      <c r="E13">
+        <v>62.97</v>
+      </c>
+      <c r="F13">
+        <v>44.5</v>
+      </c>
+      <c r="G13">
+        <v>19.32</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>51.59</v>
+      </c>
+      <c r="J13">
+        <v>86.35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>6.92</v>
+      </c>
+      <c r="C14">
+        <v>52.38</v>
+      </c>
+      <c r="D14">
+        <v>9.27</v>
+      </c>
+      <c r="E14">
+        <v>96.03</v>
+      </c>
+      <c r="F14">
+        <v>84.52</v>
+      </c>
+      <c r="G14">
+        <v>61.94</v>
+      </c>
+      <c r="H14">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>93.03</v>
+      </c>
+      <c r="J14">
+        <v>5.86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>25.55</v>
+      </c>
+      <c r="C15">
+        <v>29.88</v>
+      </c>
+      <c r="D15">
+        <v>48.9</v>
+      </c>
+      <c r="E15">
+        <v>23.32</v>
+      </c>
+      <c r="F15">
+        <v>35.44</v>
+      </c>
+      <c r="G15">
+        <v>79.55</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>39.89</v>
+      </c>
+      <c r="J15">
+        <v>58.69</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>52.51</v>
+      </c>
+      <c r="C16">
+        <v>99.02</v>
+      </c>
+      <c r="D16">
+        <v>48.04</v>
+      </c>
+      <c r="E16">
+        <v>65.94</v>
+      </c>
+      <c r="F16">
+        <v>6.98</v>
+      </c>
+      <c r="G16">
+        <v>30.25</v>
+      </c>
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>54.82</v>
+      </c>
+      <c r="J16">
+        <v>88.24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>64.94</v>
+      </c>
+      <c r="C17">
+        <v>91.37</v>
+      </c>
+      <c r="D17">
+        <v>59.48</v>
+      </c>
+      <c r="E17">
+        <v>88.84</v>
+      </c>
+      <c r="F17">
+        <v>96.45</v>
+      </c>
+      <c r="G17">
+        <v>21.67</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>88.24</v>
+      </c>
+      <c r="J17">
+        <v>86.69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>25.18</v>
+      </c>
+      <c r="C18">
+        <v>93.38</v>
+      </c>
+      <c r="D18">
+        <v>48.78</v>
+      </c>
+      <c r="E18">
+        <v>51.19</v>
+      </c>
+      <c r="F18">
+        <v>31.62</v>
+      </c>
+      <c r="G18">
+        <v>96.31</v>
+      </c>
+      <c r="H18">
+        <v>48</v>
+      </c>
+      <c r="I18">
+        <v>90.01</v>
+      </c>
+      <c r="J18">
+        <v>17.33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>24.17</v>
+      </c>
+      <c r="C19">
+        <v>17.72</v>
+      </c>
+      <c r="D19">
+        <v>65.32</v>
+      </c>
+      <c r="E19">
+        <v>20.97</v>
+      </c>
+      <c r="F19">
+        <v>68.95</v>
+      </c>
+      <c r="G19">
+        <v>34.31</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>37.58</v>
+      </c>
+      <c r="J19">
+        <v>77.49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>14.23</v>
+      </c>
+      <c r="C20">
+        <v>22.7</v>
+      </c>
+      <c r="D20">
+        <v>62.49</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>33.58</v>
+      </c>
+      <c r="G20">
+        <v>10.26</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>95.74</v>
+      </c>
+      <c r="J20">
+        <v>18.03</v>
+      </c>
+      <c r="K20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>56.52</v>
+      </c>
+      <c r="C21">
+        <v>72.43</v>
+      </c>
+      <c r="D21">
+        <v>15.06</v>
+      </c>
+      <c r="E21">
+        <v>82.06</v>
+      </c>
+      <c r="F21">
+        <v>9.58</v>
+      </c>
+      <c r="G21">
+        <v>41.66</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>89.06</v>
+      </c>
+      <c r="J21">
+        <v>75.82</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>4.81</v>
+      </c>
+      <c r="C22">
+        <v>88.53</v>
+      </c>
+      <c r="D22">
+        <v>73.59</v>
+      </c>
+      <c r="E22">
+        <v>28.24</v>
+      </c>
+      <c r="F22">
+        <v>36.15</v>
+      </c>
+      <c r="G22">
+        <v>81.82</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>67.55</v>
+      </c>
+      <c r="J22">
+        <v>9.95</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>35.4</v>
+      </c>
+      <c r="C23">
+        <v>24.35</v>
+      </c>
+      <c r="D23">
+        <v>50.11</v>
+      </c>
+      <c r="E23">
+        <v>99.41</v>
+      </c>
+      <c r="F23">
+        <v>25.76</v>
+      </c>
+      <c r="G23">
+        <v>35.66</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>11.65</v>
+      </c>
+      <c r="J23">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>52.68</v>
+      </c>
+      <c r="C24">
+        <v>52.75</v>
+      </c>
+      <c r="D24">
+        <v>45.04</v>
+      </c>
+      <c r="E24">
+        <v>32.3</v>
+      </c>
+      <c r="F24">
+        <v>11.1</v>
+      </c>
+      <c r="G24">
+        <v>12.83</v>
+      </c>
+      <c r="H24">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>27.8</v>
+      </c>
+      <c r="J24">
+        <v>63.42</v>
+      </c>
+      <c r="K24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>94.59</v>
+      </c>
+      <c r="C25">
+        <v>37.32</v>
+      </c>
+      <c r="D25">
+        <v>54.3</v>
+      </c>
+      <c r="E25">
+        <v>60.62</v>
+      </c>
+      <c r="F25">
+        <v>69.52</v>
+      </c>
+      <c r="G25">
+        <v>59.32</v>
+      </c>
+      <c r="H25">
+        <v>43</v>
+      </c>
+      <c r="I25">
+        <v>12.22</v>
+      </c>
+      <c r="J25">
+        <v>78.09</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>59.98</v>
+      </c>
+      <c r="C26">
+        <v>46.69</v>
+      </c>
+      <c r="D26">
+        <v>87.14</v>
+      </c>
+      <c r="E26">
+        <v>33.47</v>
+      </c>
+      <c r="F26">
+        <v>1.52</v>
+      </c>
+      <c r="G26">
+        <v>40.38</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>86.39</v>
+      </c>
+      <c r="J26">
+        <v>79.69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>40.77</v>
+      </c>
+      <c r="C27">
+        <v>60.78</v>
+      </c>
+      <c r="D27">
+        <v>45.91</v>
+      </c>
+      <c r="E27">
+        <v>61.69</v>
+      </c>
+      <c r="F27">
+        <v>74.15</v>
+      </c>
+      <c r="G27">
+        <v>58.24</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>77.38</v>
+      </c>
+      <c r="J27">
+        <v>4.8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>78.3</v>
+      </c>
+      <c r="C28">
+        <v>66.83</v>
+      </c>
+      <c r="D28">
+        <v>55.67</v>
+      </c>
+      <c r="E28">
+        <v>10.92</v>
+      </c>
+      <c r="F28">
+        <v>25.37</v>
+      </c>
+      <c r="G28">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <v>77.87</v>
+      </c>
+      <c r="J28">
+        <v>25.03</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>62.29</v>
+      </c>
+      <c r="C29">
+        <v>23.2</v>
+      </c>
+      <c r="D29">
+        <v>42.4</v>
+      </c>
+      <c r="E29">
+        <v>63.88</v>
+      </c>
+      <c r="F29">
+        <v>7.59</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>6.33</v>
+      </c>
+      <c r="J29">
+        <v>18.37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>81.44</v>
+      </c>
+      <c r="C30">
+        <v>90.47</v>
+      </c>
+      <c r="D30">
+        <v>62.09</v>
+      </c>
+      <c r="E30">
+        <v>60.09</v>
+      </c>
+      <c r="F30">
+        <v>25.45</v>
+      </c>
+      <c r="G30">
+        <v>41.03</v>
+      </c>
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>43.31</v>
+      </c>
+      <c r="J30">
+        <v>20.15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>24.82</v>
+      </c>
+      <c r="C31">
+        <v>10.65</v>
+      </c>
+      <c r="D31">
+        <v>34.7</v>
+      </c>
+      <c r="E31">
+        <v>27.86</v>
+      </c>
+      <c r="F31">
+        <v>24.22</v>
+      </c>
+      <c r="G31">
+        <v>13.25</v>
+      </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>26.37</v>
+      </c>
+      <c r="J31">
+        <v>35.9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>37.07</v>
+      </c>
+      <c r="C32">
+        <v>72.14</v>
+      </c>
+      <c r="D32">
+        <v>29.22</v>
+      </c>
+      <c r="E32">
+        <v>91.89</v>
+      </c>
+      <c r="F32">
+        <v>70.2</v>
+      </c>
+      <c r="G32">
+        <v>56.16</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>86.91</v>
+      </c>
+      <c r="J32">
+        <v>29.27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>24.09</v>
+      </c>
+      <c r="C33">
+        <v>18.5</v>
+      </c>
+      <c r="D33">
+        <v>88</v>
+      </c>
+      <c r="E33">
+        <v>11.48</v>
+      </c>
+      <c r="F33">
+        <v>34.44</v>
+      </c>
+      <c r="G33">
+        <v>38.55</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>44.39</v>
+      </c>
+      <c r="J33">
+        <v>62.19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>21.8</v>
+      </c>
+      <c r="C34">
+        <v>60.01</v>
+      </c>
+      <c r="D34">
+        <v>91.1</v>
+      </c>
+      <c r="E34">
+        <v>15.5</v>
+      </c>
+      <c r="F34">
+        <v>33.05</v>
+      </c>
+      <c r="G34">
+        <v>1.72</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>96.17</v>
+      </c>
+      <c r="J34">
+        <v>96.91</v>
+      </c>
+      <c r="K34" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>56.25</v>
+      </c>
+      <c r="C35">
+        <v>17.25</v>
+      </c>
+      <c r="D35">
+        <v>30.03</v>
+      </c>
+      <c r="E35">
+        <v>5.19</v>
+      </c>
+      <c r="F35">
+        <v>38.35</v>
+      </c>
+      <c r="G35">
+        <v>32.81</v>
+      </c>
+      <c r="H35">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>97.42</v>
+      </c>
+      <c r="J35">
+        <v>93.48</v>
+      </c>
+      <c r="K35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>35.46</v>
+      </c>
+      <c r="C36">
+        <v>65.66</v>
+      </c>
+      <c r="D36">
+        <v>69.37</v>
+      </c>
+      <c r="E36">
+        <v>46.83</v>
+      </c>
+      <c r="F36">
+        <v>39.45</v>
+      </c>
+      <c r="G36">
+        <v>79.98</v>
+      </c>
+      <c r="H36">
+        <v>36</v>
+      </c>
+      <c r="I36">
+        <v>41.65</v>
+      </c>
+      <c r="J36">
+        <v>98.38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>49.17</v>
+      </c>
+      <c r="C37">
+        <v>62.29</v>
+      </c>
+      <c r="D37">
+        <v>72.06</v>
+      </c>
+      <c r="E37">
+        <v>12.58</v>
+      </c>
+      <c r="F37">
+        <v>84.29</v>
+      </c>
+      <c r="G37">
+        <v>48.09</v>
+      </c>
+      <c r="H37">
+        <v>49</v>
+      </c>
+      <c r="I37">
+        <v>30.89</v>
+      </c>
+      <c r="J37">
+        <v>39.46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>43.44</v>
+      </c>
+      <c r="C38">
+        <v>67.34</v>
+      </c>
+      <c r="D38">
+        <v>69.47</v>
+      </c>
+      <c r="E38">
+        <v>49.55</v>
+      </c>
+      <c r="F38">
+        <v>38.96</v>
+      </c>
+      <c r="G38">
+        <v>55.07</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>91.44</v>
+      </c>
+      <c r="J38">
+        <v>94.05</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>1.94</v>
+      </c>
+      <c r="C39">
+        <v>3.2</v>
+      </c>
+      <c r="D39">
+        <v>64.2</v>
+      </c>
+      <c r="E39">
+        <v>83.77</v>
+      </c>
+      <c r="F39">
+        <v>57.93</v>
+      </c>
+      <c r="G39">
+        <v>4.12</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <v>10.92</v>
+      </c>
+      <c r="J39">
+        <v>75.07</v>
+      </c>
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>87.57</v>
+      </c>
+      <c r="C40">
+        <v>59.06</v>
+      </c>
+      <c r="D40">
+        <v>52.97</v>
+      </c>
+      <c r="E40">
+        <v>52.11</v>
+      </c>
+      <c r="F40">
+        <v>97.17</v>
+      </c>
+      <c r="G40">
+        <v>9.72</v>
+      </c>
+      <c r="H40">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <v>94.96</v>
+      </c>
+      <c r="J40">
+        <v>89.81</v>
+      </c>
+      <c r="K40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>47.08</v>
+      </c>
+      <c r="C41">
+        <v>89.4</v>
+      </c>
+      <c r="D41">
+        <v>61.33</v>
+      </c>
+      <c r="E41">
+        <v>30.06</v>
+      </c>
+      <c r="F41">
+        <v>13.29</v>
+      </c>
+      <c r="G41">
+        <v>48.39</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>28.95</v>
+      </c>
+      <c r="J41">
+        <v>60.81</v>
+      </c>
+      <c r="K41" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>8.98</v>
+      </c>
+      <c r="C42">
+        <v>11.97</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>45.53</v>
+      </c>
+      <c r="F42">
+        <v>39.67</v>
+      </c>
+      <c r="G42">
+        <v>74.76</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>24.11</v>
+      </c>
+      <c r="J42">
+        <v>29.57</v>
+      </c>
+      <c r="K42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>98.71</v>
+      </c>
+      <c r="C43">
+        <v>82.67</v>
+      </c>
+      <c r="D43">
+        <v>60.08</v>
+      </c>
+      <c r="E43">
+        <v>26.75</v>
+      </c>
+      <c r="F43">
+        <v>38.54</v>
+      </c>
+      <c r="G43">
+        <v>90.89</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>97.2</v>
+      </c>
+      <c r="J43">
+        <v>25.84</v>
+      </c>
+      <c r="K43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>56.89</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>54.29</v>
+      </c>
+      <c r="E44">
+        <v>4.7</v>
+      </c>
+      <c r="F44">
+        <v>2.06</v>
+      </c>
+      <c r="G44">
+        <v>34.5</v>
+      </c>
+      <c r="H44">
+        <v>26</v>
+      </c>
+      <c r="I44">
+        <v>32.02</v>
+      </c>
+      <c r="J44">
+        <v>28.35</v>
+      </c>
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>57.07</v>
+      </c>
+      <c r="C45">
+        <v>85.99</v>
+      </c>
+      <c r="D45">
+        <v>24.55</v>
+      </c>
+      <c r="E45">
+        <v>38.29</v>
+      </c>
+      <c r="F45">
+        <v>13.42</v>
+      </c>
+      <c r="G45">
+        <v>15.23</v>
+      </c>
+      <c r="H45">
+        <v>41</v>
+      </c>
+      <c r="I45">
+        <v>81.09</v>
+      </c>
+      <c r="J45">
+        <v>72.35</v>
+      </c>
+      <c r="K45" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>86.38</v>
+      </c>
+      <c r="C46">
+        <v>71.1</v>
+      </c>
+      <c r="D46">
+        <v>54.28</v>
+      </c>
+      <c r="E46">
+        <v>62.39</v>
+      </c>
+      <c r="F46">
+        <v>98.02</v>
+      </c>
+      <c r="G46">
+        <v>88.04</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>76.56</v>
+      </c>
+      <c r="J46">
+        <v>56.17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>78.67</v>
+      </c>
+      <c r="C47">
+        <v>8.77</v>
+      </c>
+      <c r="D47">
+        <v>70.61</v>
+      </c>
+      <c r="E47">
+        <v>4.75</v>
+      </c>
+      <c r="F47">
+        <v>86.81</v>
+      </c>
+      <c r="G47">
+        <v>3.51</v>
+      </c>
+      <c r="H47">
+        <v>41</v>
+      </c>
+      <c r="I47">
+        <v>88.32</v>
+      </c>
+      <c r="J47">
+        <v>45.49</v>
+      </c>
+      <c r="K47" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>56.85</v>
+      </c>
+      <c r="C48">
+        <v>32.8</v>
+      </c>
+      <c r="D48">
+        <v>89.36</v>
+      </c>
+      <c r="E48">
+        <v>80.62</v>
+      </c>
+      <c r="F48">
+        <v>12.34</v>
+      </c>
+      <c r="G48">
+        <v>4.39</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>44.76</v>
+      </c>
+      <c r="J48">
+        <v>40.46</v>
+      </c>
+      <c r="K48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
